--- a/node-xlsx/test.xlsx
+++ b/node-xlsx/test.xlsx
@@ -3,8 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="中文" sheetId="2" r:id="rId2"/>
+    <sheet name="中文" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -373,83 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>三亚湾</v>
-      </c>
-      <c r="B1" t="str">
-        <v>海棠湾</v>
-      </c>
-      <c r="C1" t="str">
-        <v>亚龙湾</v>
-      </c>
-      <c r="D1" t="str">
-        <v>空搜</v>
-      </c>
-      <c r="E1" t="str">
-        <v>大东海</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>三亚京润珍珠主题酒店</v>
-      </c>
-      <c r="B2" t="str">
-        <v>三亚国光豪生度假酒店</v>
-      </c>
-      <c r="C2" t="str">
-        <v>三亚泥宿艺术酒店</v>
-      </c>
-      <c r="D2" t="str">
-        <v>三亚海豚湾主题酒店</v>
-      </c>
-      <c r="E2" t="str">
-        <v>三亚半山半岛洲际度假酒店</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>三亚国光豪生度假酒店</v>
-      </c>
-      <c r="B3" t="str">
-        <v>三亚京润珍珠主题酒店</v>
-      </c>
-      <c r="C3" t="str">
-        <v>三亚海豚湾主题酒店</v>
-      </c>
-      <c r="D3" t="str">
-        <v>三亚泥宿艺术酒店</v>
-      </c>
-      <c r="E3" t="str">
-        <v>三亚半山半岛洲际度假酒店</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>三亚京润珍珠主题酒店</v>
-      </c>
-      <c r="B4" t="str">
-        <v>三亚国光豪生度假酒店</v>
-      </c>
-      <c r="C4" t="str">
-        <v>三亚泥宿艺术酒店</v>
-      </c>
-      <c r="D4" t="str">
-        <v>三亚海豚湾主题酒店</v>
-      </c>
-      <c r="E4" t="str">
-        <v>三亚半山半岛洲际度假酒店</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -463,14 +386,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>bbbb</v>
-      </c>
       <c r="B2" t="str">
         <v>aaaasa</v>
       </c>
       <c r="C2" t="str">
         <v>vvvv</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="str">
+        <v>xcxcx</v>
+      </c>
+      <c r="C3" t="str">
+        <v>cxxxcx</v>
       </c>
     </row>
   </sheetData>

--- a/node-xlsx/test.xlsx
+++ b/node-xlsx/test.xlsx
@@ -1,20 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/linuxWorkspace/github_project/test_demo/node-xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet name="中文" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>商品1</t>
+  </si>
+  <si>
+    <t>商品2</t>
+  </si>
+  <si>
+    <t>日期</t>
+    <rPh sb="0" eb="1">
+      <t>r'q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -39,14 +84,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -371,36 +428,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>aaaa</v>
-      </c>
-      <c r="B1" t="str">
-        <v>vbvvv</v>
-      </c>
-      <c r="C1" t="str">
-        <v>vvvv</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="B2" t="str">
-        <v>aaaasa</v>
-      </c>
-      <c r="C2" t="str">
-        <v>vvvv</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>42913.401921296296</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" t="str">
-        <v>xcxcx</v>
-      </c>
-      <c r="C3" t="str">
-        <v>cxxxcx</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>42913</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="C71F" sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/node-xlsx/test.xlsx
+++ b/node-xlsx/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -55,6 +55,7 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -432,7 +433,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -466,9 +467,7 @@
       <c r="A3" s="2">
         <v>42913</v>
       </c>
-      <c r="B3" s="1">
-        <v>2000</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
